--- a/Code/Results/Cases/Case_0_199/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_199/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.401431949039099</v>
+        <v>9.810751046378549</v>
       </c>
       <c r="D2">
-        <v>5.013556198660396</v>
+        <v>5.727113849605437</v>
       </c>
       <c r="E2">
-        <v>7.710112870408725</v>
+        <v>12.4771394701916</v>
       </c>
       <c r="F2">
-        <v>18.05267107536843</v>
+        <v>27.16965059071424</v>
       </c>
       <c r="G2">
-        <v>2.088929822498682</v>
+        <v>3.655525909044426</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.43244172509816</v>
+        <v>25.19632950114741</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.94840225085595</v>
+        <v>14.91304794498668</v>
       </c>
       <c r="L2">
-        <v>5.370243592021195</v>
+        <v>9.555184319125832</v>
       </c>
       <c r="M2">
-        <v>16.08907774751707</v>
+        <v>16.96766325713664</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.59674815030978</v>
+        <v>24.42635460740105</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.128001445431817</v>
+        <v>9.779030120599835</v>
       </c>
       <c r="D3">
-        <v>4.879672981867573</v>
+        <v>5.686869527530178</v>
       </c>
       <c r="E3">
-        <v>7.649382566950933</v>
+        <v>12.5049828859166</v>
       </c>
       <c r="F3">
-        <v>17.86947802493096</v>
+        <v>27.28401472622143</v>
       </c>
       <c r="G3">
-        <v>2.094691567074251</v>
+        <v>3.657680072809946</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.45363691753613</v>
+        <v>25.31508253938248</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.6090044446961</v>
+        <v>14.36099799845857</v>
       </c>
       <c r="L3">
-        <v>5.429587385886308</v>
+        <v>9.586809169504368</v>
       </c>
       <c r="M3">
-        <v>15.17911381906832</v>
+        <v>16.73738966162511</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.71402901969128</v>
+        <v>24.56239591593863</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.958314421051965</v>
+        <v>9.761197709895399</v>
       </c>
       <c r="D4">
-        <v>4.795636199346286</v>
+        <v>5.661923362733416</v>
       </c>
       <c r="E4">
-        <v>7.617233906659705</v>
+        <v>12.52433206592875</v>
       </c>
       <c r="F4">
-        <v>17.78254791437856</v>
+        <v>27.3630440493674</v>
       </c>
       <c r="G4">
-        <v>2.098332693169992</v>
+        <v>3.659072095114931</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.48628215718161</v>
+        <v>25.39464822886116</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.73959115238622</v>
+        <v>14.01122371367977</v>
       </c>
       <c r="L4">
-        <v>5.468620784143666</v>
+        <v>9.607466228754946</v>
       </c>
       <c r="M4">
-        <v>14.59536178499635</v>
+        <v>16.59602619840617</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.80630323715375</v>
+        <v>24.65256077655153</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.888811897121242</v>
+        <v>9.754349513768176</v>
       </c>
       <c r="D5">
-        <v>4.760960826553515</v>
+        <v>5.651703027520118</v>
       </c>
       <c r="E5">
-        <v>7.605401570200092</v>
+        <v>12.53278312648029</v>
       </c>
       <c r="F5">
-        <v>17.75333773637926</v>
+        <v>27.3974534928631</v>
       </c>
       <c r="G5">
-        <v>2.099843203883588</v>
+        <v>3.659656851598189</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.50428802330286</v>
+        <v>25.42873919026896</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.37346611556764</v>
+        <v>13.86615798460755</v>
       </c>
       <c r="L5">
-        <v>5.485165092067895</v>
+        <v>9.61619618658251</v>
       </c>
       <c r="M5">
-        <v>14.35135327515478</v>
+        <v>16.53848404602807</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.84871324250177</v>
+        <v>24.69096734942185</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.877252764439412</v>
+        <v>9.753237804716813</v>
       </c>
       <c r="D6">
-        <v>4.755178009264826</v>
+        <v>5.650002791989272</v>
       </c>
       <c r="E6">
-        <v>7.603512687931404</v>
+        <v>12.53422059525673</v>
       </c>
       <c r="F6">
-        <v>17.7488561439109</v>
+        <v>27.40329996885592</v>
       </c>
       <c r="G6">
-        <v>2.100095657501579</v>
+        <v>3.65975500832609</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.5075550569272</v>
+        <v>25.43450051890177</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.31195676229181</v>
+        <v>13.84192307002534</v>
       </c>
       <c r="L6">
-        <v>5.487950375137694</v>
+        <v>9.617664648045857</v>
       </c>
       <c r="M6">
-        <v>14.31047168901549</v>
+        <v>16.52893482252854</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.85603751292765</v>
+        <v>24.69744507464632</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.957378380294184</v>
+        <v>9.761103651078175</v>
       </c>
       <c r="D7">
-        <v>4.79517025220485</v>
+        <v>5.661785742386609</v>
       </c>
       <c r="E7">
-        <v>7.617069228879581</v>
+        <v>12.52444374839569</v>
       </c>
       <c r="F7">
-        <v>17.78212910855896</v>
+        <v>27.3634991964168</v>
       </c>
       <c r="G7">
-        <v>2.098352955315242</v>
+        <v>3.659079910430975</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.48650625941698</v>
+        <v>25.39510124747915</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.7347013701111</v>
+        <v>14.00927728462222</v>
       </c>
       <c r="L7">
-        <v>5.468841342522913</v>
+        <v>9.607582700037257</v>
       </c>
       <c r="M7">
-        <v>14.5920955461118</v>
+        <v>16.59524982618393</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.80685610161494</v>
+        <v>24.65307201120392</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.307582955283388</v>
+        <v>9.799475603335228</v>
       </c>
       <c r="D8">
-        <v>4.96779124298489</v>
+        <v>5.713289445960248</v>
       </c>
       <c r="E8">
-        <v>7.688092520797546</v>
+        <v>12.48627195920623</v>
       </c>
       <c r="F8">
-        <v>17.98408388063874</v>
+        <v>27.20724859082581</v>
       </c>
       <c r="G8">
-        <v>2.09089546034648</v>
+        <v>3.656254303255698</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.4355353099669</v>
+        <v>25.23589210755749</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.49632594972107</v>
+        <v>14.72505264806462</v>
       </c>
       <c r="L8">
-        <v>5.390157156733732</v>
+        <v>9.565831604720676</v>
       </c>
       <c r="M8">
-        <v>15.78060653005937</v>
+        <v>16.88829446205846</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.63280517848987</v>
+        <v>24.47188170172155</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.976217587297437</v>
+        <v>9.887525880579483</v>
       </c>
       <c r="D9">
-        <v>5.290544146328255</v>
+        <v>5.812207779421975</v>
       </c>
       <c r="E9">
-        <v>7.869116728326399</v>
+        <v>12.42931472337027</v>
       </c>
       <c r="F9">
-        <v>18.5909461091302</v>
+        <v>26.97120546515423</v>
       </c>
       <c r="G9">
-        <v>2.077056963862543</v>
+        <v>3.651261066259672</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.50163469379742</v>
+        <v>24.97668150826986</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.57901410566159</v>
+        <v>16.03559359851403</v>
       </c>
       <c r="L9">
-        <v>5.25719319650116</v>
+        <v>9.493772174852436</v>
       </c>
       <c r="M9">
-        <v>18.02653679028776</v>
+        <v>17.46062242867156</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.46552265427229</v>
+        <v>24.16942693375184</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.452021565144799</v>
+        <v>9.95966993065108</v>
       </c>
       <c r="D10">
-        <v>5.516633084375525</v>
+        <v>5.883339612954066</v>
       </c>
       <c r="E10">
-        <v>8.028747571140464</v>
+        <v>12.3984024970275</v>
       </c>
       <c r="F10">
-        <v>19.17448480311475</v>
+        <v>26.84129068187256</v>
       </c>
       <c r="G10">
-        <v>2.067317150239292</v>
+        <v>3.647922897579864</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.66508143627259</v>
+        <v>24.8188554301491</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.6197703007544</v>
+        <v>16.93326400341038</v>
       </c>
       <c r="L10">
-        <v>5.173640304003803</v>
+        <v>9.446787154650846</v>
       </c>
       <c r="M10">
-        <v>19.60804269774854</v>
+        <v>17.87635386011518</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.46718213820373</v>
+        <v>23.97973167773438</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.664402927801763</v>
+        <v>9.994026059008515</v>
       </c>
       <c r="D11">
-        <v>5.6168441762248</v>
+        <v>5.915306272928659</v>
       </c>
       <c r="E11">
-        <v>8.107367333917853</v>
+        <v>12.38671753855376</v>
       </c>
       <c r="F11">
-        <v>19.47127858125612</v>
+        <v>26.79175689315633</v>
       </c>
       <c r="G11">
-        <v>2.062966755360035</v>
+        <v>3.646475252347972</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.76714279114652</v>
+        <v>24.75420329984151</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.50026819118622</v>
+        <v>17.32604882252921</v>
       </c>
       <c r="L11">
-        <v>5.138982666056241</v>
+        <v>9.426700573081456</v>
       </c>
       <c r="M11">
-        <v>20.29068526308174</v>
+        <v>18.06376352505727</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.49897228558963</v>
+        <v>23.90055971176758</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.744194901521359</v>
+        <v>10.00724938959442</v>
       </c>
       <c r="D12">
-        <v>5.654395265498819</v>
+        <v>5.927350040532585</v>
       </c>
       <c r="E12">
-        <v>8.138017301198957</v>
+        <v>12.38263472511215</v>
       </c>
       <c r="F12">
-        <v>19.58825859059142</v>
+        <v>26.7743842898924</v>
       </c>
       <c r="G12">
-        <v>2.061329828716887</v>
+        <v>3.645937205106452</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.80998728558203</v>
+        <v>24.73075379101618</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.8268805480707</v>
+        <v>17.47244809343837</v>
       </c>
       <c r="L12">
-        <v>5.126367249656026</v>
+        <v>9.419279017227149</v>
       </c>
       <c r="M12">
-        <v>20.5439592111819</v>
+        <v>18.13442985839614</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.51579647397074</v>
+        <v>23.8716089025385</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.727039050285047</v>
+        <v>10.00439214269771</v>
       </c>
       <c r="D13">
-        <v>5.646325855837037</v>
+        <v>5.924759005632674</v>
       </c>
       <c r="E13">
-        <v>8.131376983453888</v>
+        <v>12.38349881818659</v>
       </c>
       <c r="F13">
-        <v>19.56285953487916</v>
+        <v>26.77806406094943</v>
       </c>
       <c r="G13">
-        <v>2.061681922290592</v>
+        <v>3.646052632837233</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.80057009373875</v>
+        <v>24.73575803794387</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.75684058298785</v>
+        <v>17.44102391673268</v>
       </c>
       <c r="L13">
-        <v>5.129061126446874</v>
+        <v>9.420869167743664</v>
       </c>
       <c r="M13">
-        <v>20.4896435971297</v>
+        <v>18.11922488471155</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.51195516588644</v>
+        <v>23.8777980786947</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.670980372136693</v>
+        <v>9.995109718349115</v>
       </c>
       <c r="D14">
-        <v>5.619941566524382</v>
+        <v>5.916298378190751</v>
       </c>
       <c r="E14">
-        <v>8.109871237321558</v>
+        <v>12.38637478752158</v>
       </c>
       <c r="F14">
-        <v>19.48081017655575</v>
+        <v>26.79029983458615</v>
       </c>
       <c r="G14">
-        <v>2.062831880946479</v>
+        <v>3.646430783858231</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.77058236832648</v>
+        <v>24.75225336307971</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.52727491413025</v>
+        <v>17.3381406014064</v>
       </c>
       <c r="L14">
-        <v>5.137934430488023</v>
+        <v>9.426086295256136</v>
       </c>
       <c r="M14">
-        <v>20.31162666221443</v>
+        <v>18.06958364568386</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.50025868062528</v>
+        <v>23.89815723692643</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.636559222524189</v>
+        <v>9.989451524781007</v>
       </c>
       <c r="D15">
-        <v>5.603728300576284</v>
+        <v>5.911107867333961</v>
       </c>
       <c r="E15">
-        <v>8.096813172510489</v>
+        <v>12.38818094796264</v>
       </c>
       <c r="F15">
-        <v>19.43115259581947</v>
+        <v>26.79797520318607</v>
       </c>
       <c r="G15">
-        <v>2.063537594582818</v>
+        <v>3.646663731882826</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.75276655038397</v>
+        <v>24.76249189797463</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.38577419703777</v>
+        <v>17.27481412671951</v>
       </c>
       <c r="L15">
-        <v>5.143436671157256</v>
+        <v>9.429305993959932</v>
       </c>
       <c r="M15">
-        <v>20.20190726127381</v>
+        <v>18.0391360436822</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.49372697918204</v>
+        <v>23.91076210658255</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.438055853151297</v>
+        <v>9.957454965458464</v>
       </c>
       <c r="D16">
-        <v>5.510029426556952</v>
+        <v>5.881242207931966</v>
       </c>
       <c r="E16">
-        <v>8.023731694370923</v>
+        <v>12.39921398975576</v>
       </c>
       <c r="F16">
-        <v>19.1557268779877</v>
+        <v>26.84472111574534</v>
       </c>
       <c r="G16">
-        <v>2.067602984599622</v>
+        <v>3.648018926978494</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.65898741275059</v>
+        <v>24.82322482885384</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.56127042155866</v>
+        <v>16.90727234506141</v>
       </c>
       <c r="L16">
-        <v>5.175974925208089</v>
+        <v>9.448125735318239</v>
       </c>
       <c r="M16">
-        <v>19.56269528886071</v>
+        <v>17.86406699044263</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.46575686694608</v>
+        <v>23.98504955111252</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.315202418653319</v>
+        <v>9.938214530086537</v>
       </c>
       <c r="D17">
-        <v>5.451859352904734</v>
+        <v>5.862816723251443</v>
       </c>
       <c r="E17">
-        <v>7.980447142944734</v>
+        <v>12.40659141861149</v>
       </c>
       <c r="F17">
-        <v>18.99485482215281</v>
+        <v>26.8758548866916</v>
       </c>
       <c r="G17">
-        <v>2.070116796392266</v>
+        <v>3.648868418924314</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.60870804917177</v>
+        <v>24.86231620058802</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.04325388595113</v>
+        <v>16.67773331060423</v>
       </c>
       <c r="L17">
-        <v>5.196812621660787</v>
+        <v>9.46000049331411</v>
       </c>
       <c r="M17">
-        <v>19.16117903950535</v>
+        <v>17.75618977761428</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.45677896807957</v>
+        <v>24.03245059229298</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.244160057460727</v>
+        <v>9.927293131400591</v>
       </c>
       <c r="D18">
-        <v>5.418154034526491</v>
+        <v>5.852182311570682</v>
       </c>
       <c r="E18">
-        <v>7.956115202428053</v>
+        <v>12.41105846490959</v>
       </c>
       <c r="F18">
-        <v>18.90527157869914</v>
+        <v>26.89466199949165</v>
       </c>
       <c r="G18">
-        <v>2.071570300947462</v>
+        <v>3.649363701132835</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.58238480431743</v>
+        <v>24.88547259726144</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.74079581553747</v>
+        <v>16.54424811056843</v>
       </c>
       <c r="L18">
-        <v>5.209111568100489</v>
+        <v>9.466951708597861</v>
       </c>
       <c r="M18">
-        <v>18.92677035939763</v>
+        <v>17.69398406483456</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.4545172774323</v>
+        <v>24.0603843600416</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.220042630473912</v>
+        <v>9.923620498688873</v>
       </c>
       <c r="D19">
-        <v>5.40670007022587</v>
+        <v>5.848575556742283</v>
       </c>
       <c r="E19">
-        <v>7.947973248442761</v>
+        <v>12.41260935101753</v>
       </c>
       <c r="F19">
-        <v>18.87544335041114</v>
+        <v>26.90118401120534</v>
       </c>
       <c r="G19">
-        <v>2.072063773891152</v>
+        <v>3.649532543515516</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.57391145127282</v>
+        <v>24.89342821302842</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.6376123961702</v>
+        <v>16.49880478901497</v>
       </c>
       <c r="L19">
-        <v>5.213328875794715</v>
+        <v>9.469326090545806</v>
       </c>
       <c r="M19">
-        <v>18.84680629354317</v>
+        <v>17.67289694778388</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.45424000015989</v>
+        <v>24.06995713958987</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.328320114597226</v>
+        <v>9.940247735152177</v>
       </c>
       <c r="D20">
-        <v>5.458077399087828</v>
+        <v>5.864781967838508</v>
       </c>
       <c r="E20">
-        <v>7.984996353403375</v>
+        <v>12.40578292033724</v>
       </c>
       <c r="F20">
-        <v>19.01167434702653</v>
+        <v>26.87244744919663</v>
       </c>
       <c r="G20">
-        <v>2.069848415043414</v>
+        <v>3.648777298394573</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.6137901147268</v>
+        <v>24.85808525947248</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.09886379101944</v>
+        <v>16.70232005492674</v>
       </c>
       <c r="L20">
-        <v>5.194561765330816</v>
+        <v>9.458723866707702</v>
       </c>
       <c r="M20">
-        <v>19.204279528594</v>
+        <v>17.76769021261053</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.45743195494645</v>
+        <v>24.02733529171223</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.687463656861068</v>
+        <v>9.997830462160406</v>
       </c>
       <c r="D21">
-        <v>5.627702162172334</v>
+        <v>5.918785173156847</v>
       </c>
       <c r="E21">
-        <v>8.116164040688396</v>
+        <v>12.38552076201104</v>
       </c>
       <c r="F21">
-        <v>19.50478489311427</v>
+        <v>26.78666823778684</v>
       </c>
       <c r="G21">
-        <v>2.062493834914941</v>
+        <v>3.646319436822808</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.77927498280134</v>
+        <v>24.74738021086651</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.59488824121515</v>
+        <v>17.36842416332169</v>
       </c>
       <c r="L21">
-        <v>5.135314093801676</v>
+        <v>9.424548885396076</v>
       </c>
       <c r="M21">
-        <v>20.36405591170967</v>
+        <v>18.08417310354713</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.50356179554371</v>
+        <v>23.89214926067648</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.918484097806482</v>
+        <v>10.03670425162079</v>
       </c>
       <c r="D22">
-        <v>5.736243503495264</v>
+        <v>5.953719735659502</v>
       </c>
       <c r="E22">
-        <v>8.207016100096284</v>
+        <v>12.37427188985297</v>
       </c>
       <c r="F22">
-        <v>19.85384602657829</v>
+        <v>26.73868194122507</v>
       </c>
       <c r="G22">
-        <v>2.057747682193694</v>
+        <v>3.644772189052233</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.91197639057175</v>
+        <v>24.6810508325459</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.53295169194943</v>
+        <v>17.79008601342642</v>
       </c>
       <c r="L22">
-        <v>5.09957166185679</v>
+        <v>9.403290566902992</v>
       </c>
       <c r="M22">
-        <v>21.09159689913232</v>
+        <v>18.28923023400749</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.56175017456284</v>
+        <v>23.80980314457209</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.795536069894814</v>
+        <v>10.01584571768385</v>
       </c>
       <c r="D23">
-        <v>5.678530089147013</v>
+        <v>5.935109047867324</v>
       </c>
       <c r="E23">
-        <v>8.158052752227796</v>
+        <v>12.38009316772294</v>
       </c>
       <c r="F23">
-        <v>19.66507142083082</v>
+        <v>26.76355131144196</v>
       </c>
       <c r="G23">
-        <v>2.060275634098965</v>
+        <v>3.645592592907103</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.83883827093329</v>
+        <v>24.71589916204026</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.03589541534732</v>
+        <v>17.56631834020932</v>
       </c>
       <c r="L23">
-        <v>5.118365902723591</v>
+        <v>9.414538079474045</v>
       </c>
       <c r="M23">
-        <v>20.70605778906541</v>
+        <v>18.17996847784419</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.52802369962089</v>
+        <v>23.85320134244851</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.322390884699814</v>
+        <v>9.93932808592057</v>
       </c>
       <c r="D24">
-        <v>5.455267036901471</v>
+        <v>5.86389360917954</v>
       </c>
       <c r="E24">
-        <v>7.982937934271088</v>
+        <v>12.40614773949994</v>
       </c>
       <c r="F24">
-        <v>19.00406120031714</v>
+        <v>26.87398512433541</v>
       </c>
       <c r="G24">
-        <v>2.069969724378734</v>
+        <v>3.64881847249538</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.61148448350825</v>
+        <v>24.85999594318231</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.07373702135214</v>
+        <v>16.69120911496814</v>
       </c>
       <c r="L24">
-        <v>5.195578385619064</v>
+        <v>9.459300642511332</v>
       </c>
       <c r="M24">
-        <v>19.18480492702512</v>
+        <v>17.76249143997626</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.45712773188311</v>
+        <v>24.0296457942443</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.797767193208635</v>
+        <v>9.86237007254149</v>
       </c>
       <c r="D25">
-        <v>5.205076351695864</v>
+        <v>5.785698954208434</v>
       </c>
       <c r="E25">
-        <v>7.815545814300291</v>
+        <v>12.44280438390547</v>
       </c>
       <c r="F25">
-        <v>18.40315824773288</v>
+        <v>27.02746358244865</v>
       </c>
       <c r="G25">
-        <v>2.080721666824812</v>
+        <v>3.652553597309529</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.46454108997982</v>
+        <v>25.04109914112944</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.78464705743103</v>
+        <v>15.69196395550025</v>
       </c>
       <c r="L25">
-        <v>5.290769700159662</v>
+        <v>9.512218194209657</v>
       </c>
       <c r="M25">
-        <v>17.41111969849238</v>
+        <v>17.30639080222418</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.49025295541294</v>
+        <v>24.24555990906726</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_199/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_199/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.810751046378549</v>
+        <v>7.401431949039139</v>
       </c>
       <c r="D2">
-        <v>5.727113849605437</v>
+        <v>5.013556198660501</v>
       </c>
       <c r="E2">
-        <v>12.4771394701916</v>
+        <v>7.710112870408634</v>
       </c>
       <c r="F2">
-        <v>27.16965059071424</v>
+        <v>18.05267107536844</v>
       </c>
       <c r="G2">
-        <v>3.655525909044426</v>
+        <v>2.088929822498548</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.19632950114741</v>
+        <v>15.43244172509818</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.91304794498668</v>
+        <v>20.94840225085592</v>
       </c>
       <c r="L2">
-        <v>9.555184319125832</v>
+        <v>5.370243592021071</v>
       </c>
       <c r="M2">
-        <v>16.96766325713664</v>
+        <v>16.08907774751706</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.42635460740105</v>
+        <v>14.59674815030977</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.779030120599835</v>
+        <v>7.128001445431971</v>
       </c>
       <c r="D3">
-        <v>5.686869527530178</v>
+        <v>4.879672981867573</v>
       </c>
       <c r="E3">
-        <v>12.5049828859166</v>
+        <v>7.649382566950988</v>
       </c>
       <c r="F3">
-        <v>27.28401472622143</v>
+        <v>17.86947802493113</v>
       </c>
       <c r="G3">
-        <v>3.657680072809946</v>
+        <v>2.094691567074253</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.31508253938248</v>
+        <v>15.45363691753628</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.36099799845857</v>
+        <v>19.60900444469605</v>
       </c>
       <c r="L3">
-        <v>9.586809169504368</v>
+        <v>5.429587385886245</v>
       </c>
       <c r="M3">
-        <v>16.73738966162511</v>
+        <v>15.17911381906834</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.56239591593863</v>
+        <v>14.71402901969138</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.761197709895399</v>
+        <v>6.958314421052044</v>
       </c>
       <c r="D4">
-        <v>5.661923362733416</v>
+        <v>4.795636199346328</v>
       </c>
       <c r="E4">
-        <v>12.52433206592875</v>
+        <v>7.617233906659644</v>
       </c>
       <c r="F4">
-        <v>27.3630440493674</v>
+        <v>17.78254791437852</v>
       </c>
       <c r="G4">
-        <v>3.659072095114931</v>
+        <v>2.098332693169992</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.39464822886116</v>
+        <v>15.48628215718162</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.01122371367977</v>
+        <v>18.73959115238626</v>
       </c>
       <c r="L4">
-        <v>9.607466228754946</v>
+        <v>5.468620784143603</v>
       </c>
       <c r="M4">
-        <v>16.59602619840617</v>
+        <v>14.59536178499633</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.65256077655153</v>
+        <v>14.8063032371537</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.754349513768176</v>
+        <v>6.888811897121147</v>
       </c>
       <c r="D5">
-        <v>5.651703027520118</v>
+        <v>4.760960826553466</v>
       </c>
       <c r="E5">
-        <v>12.53278312648029</v>
+        <v>7.605401570200093</v>
       </c>
       <c r="F5">
-        <v>27.3974534928631</v>
+        <v>17.75333773637926</v>
       </c>
       <c r="G5">
-        <v>3.659656851598189</v>
+        <v>2.099843203883721</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.42873919026896</v>
+        <v>15.50428802330281</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.86615798460755</v>
+        <v>18.37346611556768</v>
       </c>
       <c r="L5">
-        <v>9.61619618658251</v>
+        <v>5.485165092067926</v>
       </c>
       <c r="M5">
-        <v>16.53848404602807</v>
+        <v>14.35135327515478</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.69096734942185</v>
+        <v>14.84871324250171</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.753237804716813</v>
+        <v>6.877252764439426</v>
       </c>
       <c r="D6">
-        <v>5.650002791989272</v>
+        <v>4.755178009264822</v>
       </c>
       <c r="E6">
-        <v>12.53422059525673</v>
+        <v>7.60351268793136</v>
       </c>
       <c r="F6">
-        <v>27.40329996885592</v>
+        <v>17.74885614391089</v>
       </c>
       <c r="G6">
-        <v>3.65975500832609</v>
+        <v>2.100095657501446</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.43450051890177</v>
+        <v>15.5075550569272</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.84192307002534</v>
+        <v>18.31195676229182</v>
       </c>
       <c r="L6">
-        <v>9.617664648045857</v>
+        <v>5.487950375137634</v>
       </c>
       <c r="M6">
-        <v>16.52893482252854</v>
+        <v>14.31047168901547</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.69744507464632</v>
+        <v>14.85603751292765</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.761103651078175</v>
+        <v>6.957378380294261</v>
       </c>
       <c r="D7">
-        <v>5.661785742386609</v>
+        <v>4.795170252204728</v>
       </c>
       <c r="E7">
-        <v>12.52444374839569</v>
+        <v>7.617069228879632</v>
       </c>
       <c r="F7">
-        <v>27.3634991964168</v>
+        <v>17.78212910855902</v>
       </c>
       <c r="G7">
-        <v>3.659079910430975</v>
+        <v>2.098352955315509</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.39510124747915</v>
+        <v>15.48650625941702</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.00927728462222</v>
+        <v>18.73470137011112</v>
       </c>
       <c r="L7">
-        <v>9.607582700037257</v>
+        <v>5.46884134252291</v>
       </c>
       <c r="M7">
-        <v>16.59524982618393</v>
+        <v>14.5920955461118</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.65307201120392</v>
+        <v>14.80685610161496</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.799475603335228</v>
+        <v>7.307582955283505</v>
       </c>
       <c r="D8">
-        <v>5.713289445960248</v>
+        <v>4.967791242984833</v>
       </c>
       <c r="E8">
-        <v>12.48627195920623</v>
+        <v>7.688092520797596</v>
       </c>
       <c r="F8">
-        <v>27.20724859082581</v>
+        <v>17.98408388063867</v>
       </c>
       <c r="G8">
-        <v>3.656254303255698</v>
+        <v>2.090895460346481</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.23589210755749</v>
+        <v>15.43553530996693</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.72505264806462</v>
+        <v>20.49632594972109</v>
       </c>
       <c r="L8">
-        <v>9.565831604720676</v>
+        <v>5.390157156733764</v>
       </c>
       <c r="M8">
-        <v>16.88829446205846</v>
+        <v>15.78060653005936</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.47188170172155</v>
+        <v>14.63280517848983</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.887525880579483</v>
+        <v>7.976217587297288</v>
       </c>
       <c r="D9">
-        <v>5.812207779421975</v>
+        <v>5.290544146328408</v>
       </c>
       <c r="E9">
-        <v>12.42931472337027</v>
+        <v>7.869116728326323</v>
       </c>
       <c r="F9">
-        <v>26.97120546515423</v>
+        <v>18.59094610913013</v>
       </c>
       <c r="G9">
-        <v>3.651261066259672</v>
+        <v>2.077056963862277</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.97668150826986</v>
+        <v>15.50163469379737</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.03559359851403</v>
+        <v>23.57901410566151</v>
       </c>
       <c r="L9">
-        <v>9.493772174852436</v>
+        <v>5.257193196501134</v>
       </c>
       <c r="M9">
-        <v>17.46062242867156</v>
+        <v>18.02653679028775</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.16942693375184</v>
+        <v>14.4655226542723</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.95966993065108</v>
+        <v>8.452021565144815</v>
       </c>
       <c r="D10">
-        <v>5.883339612954066</v>
+        <v>5.516633084375596</v>
       </c>
       <c r="E10">
-        <v>12.3984024970275</v>
+        <v>8.028747571140544</v>
       </c>
       <c r="F10">
-        <v>26.84129068187256</v>
+        <v>19.17448480311468</v>
       </c>
       <c r="G10">
-        <v>3.647922897579864</v>
+        <v>2.067317150239428</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.8188554301491</v>
+        <v>15.66508143627257</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.93326400341038</v>
+        <v>25.6197703007544</v>
       </c>
       <c r="L10">
-        <v>9.446787154650846</v>
+        <v>5.173640304003864</v>
       </c>
       <c r="M10">
-        <v>17.87635386011518</v>
+        <v>19.60804269774852</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.97973167773438</v>
+        <v>14.4671821382037</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.994026059008515</v>
+        <v>8.664402927801634</v>
       </c>
       <c r="D11">
-        <v>5.915306272928659</v>
+        <v>5.616844176224946</v>
       </c>
       <c r="E11">
-        <v>12.38671753855376</v>
+        <v>8.107367333917741</v>
       </c>
       <c r="F11">
-        <v>26.79175689315633</v>
+        <v>19.47127858125609</v>
       </c>
       <c r="G11">
-        <v>3.646475252347972</v>
+        <v>2.062966755359901</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.75420329984151</v>
+        <v>15.76714279114647</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.32604882252921</v>
+        <v>26.50026819118621</v>
       </c>
       <c r="L11">
-        <v>9.426700573081456</v>
+        <v>5.138982666056189</v>
       </c>
       <c r="M11">
-        <v>18.06376352505727</v>
+        <v>20.29068526308176</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.90055971176758</v>
+        <v>14.49897228558964</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.00724938959442</v>
+        <v>8.744194901521322</v>
       </c>
       <c r="D12">
-        <v>5.927350040532585</v>
+        <v>5.654395265498925</v>
       </c>
       <c r="E12">
-        <v>12.38263472511215</v>
+        <v>8.138017301198964</v>
       </c>
       <c r="F12">
-        <v>26.7743842898924</v>
+        <v>19.58825859059139</v>
       </c>
       <c r="G12">
-        <v>3.645937205106452</v>
+        <v>2.061329828716621</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.73075379101618</v>
+        <v>15.80998728558198</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.47244809343837</v>
+        <v>26.82688054807073</v>
       </c>
       <c r="L12">
-        <v>9.419279017227149</v>
+        <v>5.126367249656085</v>
       </c>
       <c r="M12">
-        <v>18.13442985839614</v>
+        <v>20.54395921118191</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.8716089025385</v>
+        <v>14.51579647397072</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.00439214269771</v>
+        <v>8.727039050285105</v>
       </c>
       <c r="D13">
-        <v>5.924759005632674</v>
+        <v>5.646325855837023</v>
       </c>
       <c r="E13">
-        <v>12.38349881818659</v>
+        <v>8.131376983453919</v>
       </c>
       <c r="F13">
-        <v>26.77806406094943</v>
+        <v>19.56285953487921</v>
       </c>
       <c r="G13">
-        <v>3.646052632837233</v>
+        <v>2.061681922290592</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.73575803794387</v>
+        <v>15.80057009373879</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.44102391673268</v>
+        <v>26.75684058298782</v>
       </c>
       <c r="L13">
-        <v>9.420869167743664</v>
+        <v>5.129061126446934</v>
       </c>
       <c r="M13">
-        <v>18.11922488471155</v>
+        <v>20.48964359712968</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.8777980786947</v>
+        <v>14.51195516588651</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.995109718349115</v>
+        <v>8.670980372136643</v>
       </c>
       <c r="D14">
-        <v>5.916298378190751</v>
+        <v>5.619941566524221</v>
       </c>
       <c r="E14">
-        <v>12.38637478752158</v>
+        <v>8.109871237321531</v>
       </c>
       <c r="F14">
-        <v>26.79029983458615</v>
+        <v>19.48081017655582</v>
       </c>
       <c r="G14">
-        <v>3.646430783858231</v>
+        <v>2.062831880946344</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.75225336307971</v>
+        <v>15.77058236832648</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.3381406014064</v>
+        <v>26.52727491413023</v>
       </c>
       <c r="L14">
-        <v>9.426086295256136</v>
+        <v>5.137934430488024</v>
       </c>
       <c r="M14">
-        <v>18.06958364568386</v>
+        <v>20.31162666221444</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.89815723692643</v>
+        <v>14.50025868062534</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.989451524781007</v>
+        <v>8.636559222524165</v>
       </c>
       <c r="D15">
-        <v>5.911107867333961</v>
+        <v>5.603728300576276</v>
       </c>
       <c r="E15">
-        <v>12.38818094796264</v>
+        <v>8.09681317251049</v>
       </c>
       <c r="F15">
-        <v>26.79797520318607</v>
+        <v>19.43115259581939</v>
       </c>
       <c r="G15">
-        <v>3.646663731882826</v>
+        <v>2.063537594582684</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.76249189797463</v>
+        <v>15.75276655038386</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.27481412671951</v>
+        <v>26.38577419703779</v>
       </c>
       <c r="L15">
-        <v>9.429305993959932</v>
+        <v>5.143436671157314</v>
       </c>
       <c r="M15">
-        <v>18.0391360436822</v>
+        <v>20.20190726127381</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.91076210658255</v>
+        <v>14.49372697918197</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.957454965458464</v>
+        <v>8.43805585315125</v>
       </c>
       <c r="D16">
-        <v>5.881242207931966</v>
+        <v>5.510029426556976</v>
       </c>
       <c r="E16">
-        <v>12.39921398975576</v>
+        <v>8.023731694370996</v>
       </c>
       <c r="F16">
-        <v>26.84472111574534</v>
+        <v>19.15572687798754</v>
       </c>
       <c r="G16">
-        <v>3.648018926978494</v>
+        <v>2.06760298459989</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.82322482885384</v>
+        <v>15.65898741275043</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.90727234506141</v>
+        <v>25.56127042155871</v>
       </c>
       <c r="L16">
-        <v>9.448125735318239</v>
+        <v>5.175974925208211</v>
       </c>
       <c r="M16">
-        <v>17.86406699044263</v>
+        <v>19.56269528886072</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.98504955111252</v>
+        <v>14.46575686694593</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.938214530086537</v>
+        <v>8.315202418653289</v>
       </c>
       <c r="D17">
-        <v>5.862816723251443</v>
+        <v>5.451859352904637</v>
       </c>
       <c r="E17">
-        <v>12.40659141861149</v>
+        <v>7.980447142944818</v>
       </c>
       <c r="F17">
-        <v>26.8758548866916</v>
+        <v>18.99485482215276</v>
       </c>
       <c r="G17">
-        <v>3.648868418924314</v>
+        <v>2.070116796392666</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.86231620058802</v>
+        <v>15.60870804917173</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.67773331060423</v>
+        <v>25.04325388595118</v>
       </c>
       <c r="L17">
-        <v>9.46000049331411</v>
+        <v>5.196812621660853</v>
       </c>
       <c r="M17">
-        <v>17.75618977761428</v>
+        <v>19.16117903950536</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.03245059229298</v>
+        <v>14.4567789680795</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.927293131400591</v>
+        <v>8.244160057460711</v>
       </c>
       <c r="D18">
-        <v>5.852182311570682</v>
+        <v>5.418154034526486</v>
       </c>
       <c r="E18">
-        <v>12.41105846490959</v>
+        <v>7.956115202428093</v>
       </c>
       <c r="F18">
-        <v>26.89466199949165</v>
+        <v>18.90527157869895</v>
       </c>
       <c r="G18">
-        <v>3.649363701132835</v>
+        <v>2.071570300947595</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.88547259726144</v>
+        <v>15.58238480431727</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.54424811056843</v>
+        <v>24.74079581553755</v>
       </c>
       <c r="L18">
-        <v>9.466951708597861</v>
+        <v>5.209111568100496</v>
       </c>
       <c r="M18">
-        <v>17.69398406483456</v>
+        <v>18.92677035939767</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.0603843600416</v>
+        <v>14.45451727743211</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.923620498688873</v>
+        <v>8.220042630473813</v>
       </c>
       <c r="D19">
-        <v>5.848575556742283</v>
+        <v>5.406700070225772</v>
       </c>
       <c r="E19">
-        <v>12.41260935101753</v>
+        <v>7.947973248442673</v>
       </c>
       <c r="F19">
-        <v>26.90118401120534</v>
+        <v>18.87544335041102</v>
       </c>
       <c r="G19">
-        <v>3.649532543515516</v>
+        <v>2.07206377389142</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.89342821302842</v>
+        <v>15.57391145127269</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.49880478901497</v>
+        <v>24.63761239617021</v>
       </c>
       <c r="L19">
-        <v>9.469326090545806</v>
+        <v>5.213328875794684</v>
       </c>
       <c r="M19">
-        <v>17.67289694778388</v>
+        <v>18.84680629354318</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.06995713958987</v>
+        <v>14.45424000015977</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.940247735152177</v>
+        <v>8.328320114597226</v>
       </c>
       <c r="D20">
-        <v>5.864781967838508</v>
+        <v>5.458077399087899</v>
       </c>
       <c r="E20">
-        <v>12.40578292033724</v>
+        <v>7.984996353403259</v>
       </c>
       <c r="F20">
-        <v>26.87244744919663</v>
+        <v>19.01167434702646</v>
       </c>
       <c r="G20">
-        <v>3.648777298394573</v>
+        <v>2.069848415043412</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.85808525947248</v>
+        <v>15.61379011472672</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.70232005492674</v>
+        <v>25.09886379101951</v>
       </c>
       <c r="L20">
-        <v>9.458723866707702</v>
+        <v>5.194561765330709</v>
       </c>
       <c r="M20">
-        <v>17.76769021261053</v>
+        <v>19.20427952859408</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.02733529171223</v>
+        <v>14.45743195494637</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.997830462160406</v>
+        <v>8.687463656861047</v>
       </c>
       <c r="D21">
-        <v>5.918785173156847</v>
+        <v>5.627702162172236</v>
       </c>
       <c r="E21">
-        <v>12.38552076201104</v>
+        <v>8.11616404068835</v>
       </c>
       <c r="F21">
-        <v>26.78666823778684</v>
+        <v>19.5047848931143</v>
       </c>
       <c r="G21">
-        <v>3.646319436822808</v>
+        <v>2.06249383491494</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.74738021086651</v>
+        <v>15.77927498280132</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.36842416332169</v>
+        <v>26.59488824121514</v>
       </c>
       <c r="L21">
-        <v>9.424548885396076</v>
+        <v>5.135314093801625</v>
       </c>
       <c r="M21">
-        <v>18.08417310354713</v>
+        <v>20.36405591170967</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.89214926067648</v>
+        <v>14.50356179554369</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.03670425162079</v>
+        <v>8.918484097806445</v>
       </c>
       <c r="D22">
-        <v>5.953719735659502</v>
+        <v>5.736243503495266</v>
       </c>
       <c r="E22">
-        <v>12.37427188985297</v>
+        <v>8.207016100096318</v>
       </c>
       <c r="F22">
-        <v>26.73868194122507</v>
+        <v>19.85384602657821</v>
       </c>
       <c r="G22">
-        <v>3.644772189052233</v>
+        <v>2.057747682193693</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.6810508325459</v>
+        <v>15.91197639057167</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.79008601342642</v>
+        <v>27.53295169194949</v>
       </c>
       <c r="L22">
-        <v>9.403290566902992</v>
+        <v>5.099571661856818</v>
       </c>
       <c r="M22">
-        <v>18.28923023400749</v>
+        <v>21.09159689913235</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.80980314457209</v>
+        <v>14.56175017456273</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.01584571768385</v>
+        <v>8.795536069894821</v>
       </c>
       <c r="D23">
-        <v>5.935109047867324</v>
+        <v>5.678530089146895</v>
       </c>
       <c r="E23">
-        <v>12.38009316772294</v>
+        <v>8.158052752227816</v>
       </c>
       <c r="F23">
-        <v>26.76355131144196</v>
+        <v>19.66507142083087</v>
       </c>
       <c r="G23">
-        <v>3.645592592907103</v>
+        <v>2.060275634099233</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.71589916204026</v>
+        <v>15.83883827093334</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.56631834020932</v>
+        <v>27.03589541534733</v>
       </c>
       <c r="L23">
-        <v>9.414538079474045</v>
+        <v>5.118365902723591</v>
       </c>
       <c r="M23">
-        <v>18.17996847784419</v>
+        <v>20.70605778906541</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.85320134244851</v>
+        <v>14.52802369962092</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.93932808592057</v>
+        <v>8.322390884699953</v>
       </c>
       <c r="D24">
-        <v>5.86389360917954</v>
+        <v>5.455267036901544</v>
       </c>
       <c r="E24">
-        <v>12.40614773949994</v>
+        <v>7.982937934271053</v>
       </c>
       <c r="F24">
-        <v>26.87398512433541</v>
+        <v>19.0040612003172</v>
       </c>
       <c r="G24">
-        <v>3.64881847249538</v>
+        <v>2.069969724378468</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.85999594318231</v>
+        <v>15.61148448350836</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.69120911496814</v>
+        <v>25.07373702135208</v>
       </c>
       <c r="L24">
-        <v>9.459300642511332</v>
+        <v>5.195578385618972</v>
       </c>
       <c r="M24">
-        <v>17.76249143997626</v>
+        <v>19.18480492702509</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.0296457942443</v>
+        <v>14.45712773188319</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.86237007254149</v>
+        <v>7.797767193208759</v>
       </c>
       <c r="D25">
-        <v>5.785698954208434</v>
+        <v>5.2050763516958</v>
       </c>
       <c r="E25">
-        <v>12.44280438390547</v>
+        <v>7.815545814300376</v>
       </c>
       <c r="F25">
-        <v>27.02746358244865</v>
+        <v>18.40315824773301</v>
       </c>
       <c r="G25">
-        <v>3.652553597309529</v>
+        <v>2.080721666824544</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.04109914112944</v>
+        <v>15.46454108997997</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.69196395550025</v>
+        <v>22.78464705743099</v>
       </c>
       <c r="L25">
-        <v>9.512218194209657</v>
+        <v>5.290769700159662</v>
       </c>
       <c r="M25">
-        <v>17.30639080222418</v>
+        <v>17.41111969849235</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.24555990906726</v>
+        <v>14.49025295541308</v>
       </c>
     </row>
   </sheetData>
